--- a/tests/advanced/randomized_tests/b13.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b13.stpprocessed_rand_results_test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
@@ -32,6 +32,9 @@
     <t>S*-MM0</t>
   </si>
   <si>
+    <t>S*-unmerged</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
@@ -45,6 +48,9 @@
   </si>
   <si>
     <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -438,13 +444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +481,14 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -496,18 +508,24 @@
         <v>194</v>
       </c>
       <c r="G2">
+        <v>194</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="H2" t="b">
+      <c r="I2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -518,7 +536,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,36 +544,36 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -564,28 +582,28 @@
         <v>75</v>
       </c>
       <c r="D2">
-        <v>0.001410594442859292</v>
+        <v>0.0001129219308495522</v>
       </c>
       <c r="E2">
-        <v>0.2839996850816533</v>
+        <v>0.0268957051448524</v>
       </c>
       <c r="F2">
         <v>75</v>
       </c>
       <c r="G2">
-        <v>0.02233720861840993</v>
+        <v>0.003144462592899799</v>
       </c>
       <c r="H2">
-        <v>0.0347489247797057</v>
+        <v>0.004684991668909788</v>
       </c>
       <c r="I2">
-        <v>0.04898508603218943</v>
+        <v>0.005966922733932734</v>
       </c>
       <c r="J2">
-        <v>0.1404169134330004</v>
+        <v>0.009391450323164463</v>
       </c>
       <c r="K2">
-        <v>0.005967836594209075</v>
+        <v>0.0009838948026299477</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -594,31 +612,31 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="D3">
-        <v>0.1133266215911135</v>
+        <v>0.002007377333939075</v>
       </c>
       <c r="E3">
-        <v>0.5652084350585938</v>
+        <v>0.03249291703104973</v>
       </c>
       <c r="F3">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="G3">
-        <v>0.03080518112983555</v>
+        <v>0.002872450277209282</v>
       </c>
       <c r="H3">
-        <v>0.1725931842811406</v>
+        <v>0.00690627982839942</v>
       </c>
       <c r="I3">
-        <v>0.1656539594987407</v>
+        <v>0.006613369099795818</v>
       </c>
       <c r="J3">
-        <v>0.155034399474971</v>
+        <v>0.01225536083802581</v>
       </c>
       <c r="K3">
-        <v>0.00999064464122057</v>
+        <v>0.0010749576613307</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -630,28 +648,28 @@
         <v>75</v>
       </c>
       <c r="D4">
-        <v>0.04367887566331774</v>
+        <v>0.00332916621118784</v>
       </c>
       <c r="E4">
-        <v>0.4471242009894922</v>
+        <v>0.04765735613182187</v>
       </c>
       <c r="F4">
         <v>75</v>
       </c>
       <c r="G4">
-        <v>0.01923422201070935</v>
+        <v>0.004393088165670633</v>
       </c>
       <c r="H4">
-        <v>0.08843962964601815</v>
+        <v>0.009997188113629818</v>
       </c>
       <c r="I4">
-        <v>0.1400375617668033</v>
+        <v>0.01035538129508495</v>
       </c>
       <c r="J4">
-        <v>0.1770402473630384</v>
+        <v>0.0170828877016902</v>
       </c>
       <c r="K4">
-        <v>0.005550701171159744</v>
+        <v>0.001668364740908146</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -663,192 +681,258 @@
         <v>75</v>
       </c>
       <c r="D5">
-        <v>0.001429723808541894</v>
+        <v>0.0002576448023319244</v>
       </c>
       <c r="E5">
-        <v>0.2764677749946713</v>
+        <v>0.04365428956225514</v>
       </c>
       <c r="F5">
         <v>75</v>
       </c>
       <c r="G5">
-        <v>0.01933917019050568</v>
+        <v>0.004459449555724859</v>
       </c>
       <c r="H5">
-        <v>0.02917100500781089</v>
+        <v>0.007149436045438051</v>
       </c>
       <c r="I5">
-        <v>0.06070787308271974</v>
+        <v>0.01101410528644919</v>
       </c>
       <c r="J5">
-        <v>0.1456005473155528</v>
+        <v>0.01492588361725211</v>
       </c>
       <c r="K5">
-        <v>0.005477440543472767</v>
+        <v>0.00161285512149334</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C6">
+        <v>161</v>
+      </c>
+      <c r="D6">
+        <v>0.003033468965440989</v>
+      </c>
+      <c r="E6">
+        <v>0.09924222994595766</v>
+      </c>
+      <c r="F6">
+        <v>161</v>
+      </c>
+      <c r="G6">
+        <v>0.00554067874327302</v>
+      </c>
+      <c r="H6">
+        <v>0.01238089008256793</v>
+      </c>
+      <c r="I6">
+        <v>0.05376495467498899</v>
+      </c>
+      <c r="J6">
+        <v>0.0194350890815258</v>
+      </c>
+      <c r="K6">
+        <v>0.002341007348150015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
         <v>1700</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>0.01802199811208993</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>75</v>
-      </c>
-      <c r="D7">
-        <v>0.001410594442859292</v>
-      </c>
-      <c r="E7">
-        <v>0.2839996850816533</v>
-      </c>
-      <c r="F7">
-        <v>75</v>
-      </c>
-      <c r="G7">
-        <v>0.02233720861840993</v>
-      </c>
-      <c r="H7">
-        <v>0.0347489247797057</v>
-      </c>
-      <c r="I7">
-        <v>0.04898508603218943</v>
-      </c>
-      <c r="J7">
-        <v>0.1404169134330004</v>
-      </c>
-      <c r="K7">
-        <v>0.005967836594209075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C8">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="D8">
-        <v>0.1133266215911135</v>
+        <v>0.0001129219308495522</v>
       </c>
       <c r="E8">
-        <v>0.5652084350585938</v>
+        <v>0.0268957051448524</v>
       </c>
       <c r="F8">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="G8">
-        <v>0.03080518112983555</v>
+        <v>0.003144462592899799</v>
       </c>
       <c r="H8">
-        <v>0.1725931842811406</v>
+        <v>0.004684991668909788</v>
       </c>
       <c r="I8">
-        <v>0.1656539594987407</v>
+        <v>0.005966922733932734</v>
       </c>
       <c r="J8">
-        <v>0.155034399474971</v>
+        <v>0.009391450323164463</v>
       </c>
       <c r="K8">
-        <v>0.00999064464122057</v>
+        <v>0.0009838948026299477</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>75</v>
       </c>
       <c r="D9">
-        <v>0.04367887566331774</v>
+        <v>0.002007377333939075</v>
       </c>
       <c r="E9">
-        <v>0.4471242009894922</v>
+        <v>0.03249291703104973</v>
       </c>
       <c r="F9">
         <v>75</v>
       </c>
       <c r="G9">
-        <v>0.01923422201070935</v>
+        <v>0.002872450277209282</v>
       </c>
       <c r="H9">
-        <v>0.08843962964601815</v>
+        <v>0.00690627982839942</v>
       </c>
       <c r="I9">
-        <v>0.1400375617668033</v>
+        <v>0.006613369099795818</v>
       </c>
       <c r="J9">
-        <v>0.1770402473630384</v>
+        <v>0.01225536083802581</v>
       </c>
       <c r="K9">
-        <v>0.005550701171159744</v>
+        <v>0.0010749576613307</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>75</v>
       </c>
       <c r="D10">
-        <v>0.001429723808541894</v>
+        <v>0.00332916621118784</v>
       </c>
       <c r="E10">
-        <v>0.2764677749946713</v>
+        <v>0.04765735613182187</v>
       </c>
       <c r="F10">
         <v>75</v>
       </c>
       <c r="G10">
-        <v>0.01933917019050568</v>
+        <v>0.004393088165670633</v>
       </c>
       <c r="H10">
-        <v>0.02917100500781089</v>
+        <v>0.009997188113629818</v>
       </c>
       <c r="I10">
-        <v>0.06070787308271974</v>
+        <v>0.01035538129508495</v>
       </c>
       <c r="J10">
-        <v>0.1456005473155528</v>
+        <v>0.0170828877016902</v>
       </c>
       <c r="K10">
-        <v>0.005477440543472767</v>
+        <v>0.001668364740908146</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C11">
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <v>0.0002576448023319244</v>
+      </c>
+      <c r="E11">
+        <v>0.04365428956225514</v>
+      </c>
+      <c r="F11">
+        <v>75</v>
+      </c>
+      <c r="G11">
+        <v>0.004459449555724859</v>
+      </c>
+      <c r="H11">
+        <v>0.007149436045438051</v>
+      </c>
+      <c r="I11">
+        <v>0.01101410528644919</v>
+      </c>
+      <c r="J11">
+        <v>0.01492588361725211</v>
+      </c>
+      <c r="K11">
+        <v>0.00161285512149334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>161</v>
+      </c>
+      <c r="D12">
+        <v>0.003033468965440989</v>
+      </c>
+      <c r="E12">
+        <v>0.09924222994595766</v>
+      </c>
+      <c r="F12">
+        <v>161</v>
+      </c>
+      <c r="G12">
+        <v>0.00554067874327302</v>
+      </c>
+      <c r="H12">
+        <v>0.01238089008256793</v>
+      </c>
+      <c r="I12">
+        <v>0.05376495467498899</v>
+      </c>
+      <c r="J12">
+        <v>0.0194350890815258</v>
+      </c>
+      <c r="K12">
+        <v>0.002341007348150015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
         <v>1700</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>0.01802199811208993</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b13.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b13.stpprocessed_rand_results_test.xlsx
@@ -582,28 +582,28 @@
         <v>75</v>
       </c>
       <c r="D2">
-        <v>0.0001129219308495522</v>
+        <v>0.0001403349451720715</v>
       </c>
       <c r="E2">
-        <v>0.0268957051448524</v>
+        <v>0.03105690097436309</v>
       </c>
       <c r="F2">
         <v>75</v>
       </c>
       <c r="G2">
-        <v>0.003144462592899799</v>
+        <v>0.002919693943113089</v>
       </c>
       <c r="H2">
-        <v>0.004684991668909788</v>
+        <v>0.005493101663887501</v>
       </c>
       <c r="I2">
-        <v>0.005966922733932734</v>
+        <v>0.008178039453923702</v>
       </c>
       <c r="J2">
-        <v>0.009391450323164463</v>
+        <v>0.01082539837807417</v>
       </c>
       <c r="K2">
-        <v>0.0009838948026299477</v>
+        <v>0.001010153442621231</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -615,28 +615,28 @@
         <v>75</v>
       </c>
       <c r="D3">
-        <v>0.002007377333939075</v>
+        <v>0.001920620910823345</v>
       </c>
       <c r="E3">
-        <v>0.03249291703104973</v>
+        <v>0.0349030657671392</v>
       </c>
       <c r="F3">
         <v>75</v>
       </c>
       <c r="G3">
-        <v>0.002872450277209282</v>
+        <v>0.002867874689400196</v>
       </c>
       <c r="H3">
-        <v>0.00690627982839942</v>
+        <v>0.007513747084885836</v>
       </c>
       <c r="I3">
-        <v>0.006613369099795818</v>
+        <v>0.008498859126120806</v>
       </c>
       <c r="J3">
-        <v>0.01225536083802581</v>
+        <v>0.01235072687268257</v>
       </c>
       <c r="K3">
-        <v>0.0010749576613307</v>
+        <v>0.001014214474707842</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -648,28 +648,28 @@
         <v>75</v>
       </c>
       <c r="D4">
-        <v>0.00332916621118784</v>
+        <v>0.001986748073250055</v>
       </c>
       <c r="E4">
-        <v>0.04765735613182187</v>
+        <v>0.03560670325532556</v>
       </c>
       <c r="F4">
         <v>75</v>
       </c>
       <c r="G4">
-        <v>0.004393088165670633</v>
+        <v>0.002889716066420078</v>
       </c>
       <c r="H4">
-        <v>0.009997188113629818</v>
+        <v>0.007650318555533886</v>
       </c>
       <c r="I4">
-        <v>0.01035538129508495</v>
+        <v>0.00861393054947257</v>
       </c>
       <c r="J4">
-        <v>0.0170828877016902</v>
+        <v>0.0124573796056211</v>
       </c>
       <c r="K4">
-        <v>0.001668364740908146</v>
+        <v>0.001009044237434864</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,28 +681,28 @@
         <v>75</v>
       </c>
       <c r="D5">
-        <v>0.0002576448023319244</v>
+        <v>0.0002035470679402351</v>
       </c>
       <c r="E5">
-        <v>0.04365428956225514</v>
+        <v>0.03206363087520003</v>
       </c>
       <c r="F5">
         <v>75</v>
       </c>
       <c r="G5">
-        <v>0.004459449555724859</v>
+        <v>0.002831997349858284</v>
       </c>
       <c r="H5">
-        <v>0.007149436045438051</v>
+        <v>0.005671877413988113</v>
       </c>
       <c r="I5">
-        <v>0.01101410528644919</v>
+        <v>0.008593371137976646</v>
       </c>
       <c r="J5">
-        <v>0.01492588361725211</v>
+        <v>0.01137784495949745</v>
       </c>
       <c r="K5">
-        <v>0.00161285512149334</v>
+        <v>0.001032428350299597</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -714,28 +714,28 @@
         <v>161</v>
       </c>
       <c r="D6">
-        <v>0.003033468965440989</v>
+        <v>0.002898410893976688</v>
       </c>
       <c r="E6">
-        <v>0.09924222994595766</v>
+        <v>0.1634307177737355</v>
       </c>
       <c r="F6">
         <v>161</v>
       </c>
       <c r="G6">
-        <v>0.00554067874327302</v>
+        <v>0.005984170362353325</v>
       </c>
       <c r="H6">
-        <v>0.01238089008256793</v>
+        <v>0.01477164914831519</v>
       </c>
       <c r="I6">
-        <v>0.05376495467498899</v>
+        <v>0.1164159486070275</v>
       </c>
       <c r="J6">
-        <v>0.0194350890815258</v>
+        <v>0.0182621437124908</v>
       </c>
       <c r="K6">
-        <v>0.002341007348150015</v>
+        <v>0.002305898815393448</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -761,28 +761,28 @@
         <v>75</v>
       </c>
       <c r="D8">
-        <v>0.0001129219308495522</v>
+        <v>0.0001403349451720715</v>
       </c>
       <c r="E8">
-        <v>0.0268957051448524</v>
+        <v>0.03105690097436309</v>
       </c>
       <c r="F8">
         <v>75</v>
       </c>
       <c r="G8">
-        <v>0.003144462592899799</v>
+        <v>0.002919693943113089</v>
       </c>
       <c r="H8">
-        <v>0.004684991668909788</v>
+        <v>0.005493101663887501</v>
       </c>
       <c r="I8">
-        <v>0.005966922733932734</v>
+        <v>0.008178039453923702</v>
       </c>
       <c r="J8">
-        <v>0.009391450323164463</v>
+        <v>0.01082539837807417</v>
       </c>
       <c r="K8">
-        <v>0.0009838948026299477</v>
+        <v>0.001010153442621231</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -794,28 +794,28 @@
         <v>75</v>
       </c>
       <c r="D9">
-        <v>0.002007377333939075</v>
+        <v>0.001920620910823345</v>
       </c>
       <c r="E9">
-        <v>0.03249291703104973</v>
+        <v>0.0349030657671392</v>
       </c>
       <c r="F9">
         <v>75</v>
       </c>
       <c r="G9">
-        <v>0.002872450277209282</v>
+        <v>0.002867874689400196</v>
       </c>
       <c r="H9">
-        <v>0.00690627982839942</v>
+        <v>0.007513747084885836</v>
       </c>
       <c r="I9">
-        <v>0.006613369099795818</v>
+        <v>0.008498859126120806</v>
       </c>
       <c r="J9">
-        <v>0.01225536083802581</v>
+        <v>0.01235072687268257</v>
       </c>
       <c r="K9">
-        <v>0.0010749576613307</v>
+        <v>0.001014214474707842</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -827,28 +827,28 @@
         <v>75</v>
       </c>
       <c r="D10">
-        <v>0.00332916621118784</v>
+        <v>0.001986748073250055</v>
       </c>
       <c r="E10">
-        <v>0.04765735613182187</v>
+        <v>0.03560670325532556</v>
       </c>
       <c r="F10">
         <v>75</v>
       </c>
       <c r="G10">
-        <v>0.004393088165670633</v>
+        <v>0.002889716066420078</v>
       </c>
       <c r="H10">
-        <v>0.009997188113629818</v>
+        <v>0.007650318555533886</v>
       </c>
       <c r="I10">
-        <v>0.01035538129508495</v>
+        <v>0.00861393054947257</v>
       </c>
       <c r="J10">
-        <v>0.0170828877016902</v>
+        <v>0.0124573796056211</v>
       </c>
       <c r="K10">
-        <v>0.001668364740908146</v>
+        <v>0.001009044237434864</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -860,28 +860,28 @@
         <v>75</v>
       </c>
       <c r="D11">
-        <v>0.0002576448023319244</v>
+        <v>0.0002035470679402351</v>
       </c>
       <c r="E11">
-        <v>0.04365428956225514</v>
+        <v>0.03206363087520003</v>
       </c>
       <c r="F11">
         <v>75</v>
       </c>
       <c r="G11">
-        <v>0.004459449555724859</v>
+        <v>0.002831997349858284</v>
       </c>
       <c r="H11">
-        <v>0.007149436045438051</v>
+        <v>0.005671877413988113</v>
       </c>
       <c r="I11">
-        <v>0.01101410528644919</v>
+        <v>0.008593371137976646</v>
       </c>
       <c r="J11">
-        <v>0.01492588361725211</v>
+        <v>0.01137784495949745</v>
       </c>
       <c r="K11">
-        <v>0.00161285512149334</v>
+        <v>0.001032428350299597</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -893,28 +893,28 @@
         <v>161</v>
       </c>
       <c r="D12">
-        <v>0.003033468965440989</v>
+        <v>0.002898410893976688</v>
       </c>
       <c r="E12">
-        <v>0.09924222994595766</v>
+        <v>0.1634307177737355</v>
       </c>
       <c r="F12">
         <v>161</v>
       </c>
       <c r="G12">
-        <v>0.00554067874327302</v>
+        <v>0.005984170362353325</v>
       </c>
       <c r="H12">
-        <v>0.01238089008256793</v>
+        <v>0.01477164914831519</v>
       </c>
       <c r="I12">
-        <v>0.05376495467498899</v>
+        <v>0.1164159486070275</v>
       </c>
       <c r="J12">
-        <v>0.0194350890815258</v>
+        <v>0.0182621437124908</v>
       </c>
       <c r="K12">
-        <v>0.002341007348150015</v>
+        <v>0.002305898815393448</v>
       </c>
     </row>
     <row r="13" spans="1:11">

--- a/tests/advanced/randomized_tests/b13.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b13.stpprocessed_rand_results_test.xlsx
@@ -15,42 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
-    <t>S*-BS</t>
-  </si>
-  <si>
     <t>S*-HS</t>
   </si>
   <si>
-    <t>S*-MM</t>
-  </si>
-  <si>
-    <t>S*-MM0</t>
-  </si>
-  <si>
-    <t>S*-unmerged</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
-    <t>S*-BSND</t>
-  </si>
-  <si>
     <t>S*-HSND</t>
-  </si>
-  <si>
-    <t>S*-MMND</t>
-  </si>
-  <si>
-    <t>S*-MM0ND</t>
-  </si>
-  <si>
-    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -444,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,32 +439,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -499,33 +451,9 @@
         <v>194</v>
       </c>
       <c r="D2">
-        <v>194</v>
-      </c>
-      <c r="E2">
-        <v>194</v>
-      </c>
-      <c r="F2">
-        <v>194</v>
-      </c>
-      <c r="G2">
-        <v>194</v>
-      </c>
-      <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
+      <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -536,7 +464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,395 +472,131 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="D2">
-        <v>0.0001403349451720715</v>
+        <v>0.00488268630579114</v>
       </c>
       <c r="E2">
-        <v>0.03105690097436309</v>
+        <v>0.07112788502126932</v>
       </c>
       <c r="F2">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="G2">
-        <v>0.002919693943113089</v>
+        <v>0.006859785411506891</v>
       </c>
       <c r="H2">
-        <v>0.005493101663887501</v>
+        <v>0.01532097067683935</v>
       </c>
       <c r="I2">
-        <v>0.008178039453923702</v>
+        <v>0.02495825104415417</v>
       </c>
       <c r="J2">
-        <v>0.01082539837807417</v>
+        <v>0.01374131022021174</v>
       </c>
       <c r="K2">
-        <v>0.001010153442621231</v>
+        <v>0.004082162398844957</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>75</v>
-      </c>
-      <c r="D3">
-        <v>0.001920620910823345</v>
+        <v>1700</v>
       </c>
       <c r="E3">
-        <v>0.0349030657671392</v>
-      </c>
-      <c r="F3">
-        <v>75</v>
-      </c>
-      <c r="G3">
-        <v>0.002867874689400196</v>
-      </c>
-      <c r="H3">
-        <v>0.007513747084885836</v>
-      </c>
-      <c r="I3">
-        <v>0.008498859126120806</v>
-      </c>
-      <c r="J3">
-        <v>0.01235072687268257</v>
-      </c>
-      <c r="K3">
-        <v>0.001014214474707842</v>
+        <v>0.01802199811208993</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="D4">
-        <v>0.001986748073250055</v>
+        <v>0.00488268630579114</v>
       </c>
       <c r="E4">
-        <v>0.03560670325532556</v>
+        <v>0.07112788502126932</v>
       </c>
       <c r="F4">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="G4">
-        <v>0.002889716066420078</v>
+        <v>0.006859785411506891</v>
       </c>
       <c r="H4">
-        <v>0.007650318555533886</v>
+        <v>0.01532097067683935</v>
       </c>
       <c r="I4">
-        <v>0.00861393054947257</v>
+        <v>0.02495825104415417</v>
       </c>
       <c r="J4">
-        <v>0.0124573796056211</v>
+        <v>0.01374131022021174</v>
       </c>
       <c r="K4">
-        <v>0.001009044237434864</v>
+        <v>0.004082162398844957</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>75</v>
-      </c>
-      <c r="D5">
-        <v>0.0002035470679402351</v>
+        <v>1700</v>
       </c>
       <c r="E5">
-        <v>0.03206363087520003</v>
-      </c>
-      <c r="F5">
-        <v>75</v>
-      </c>
-      <c r="G5">
-        <v>0.002831997349858284</v>
-      </c>
-      <c r="H5">
-        <v>0.005671877413988113</v>
-      </c>
-      <c r="I5">
-        <v>0.008593371137976646</v>
-      </c>
-      <c r="J5">
-        <v>0.01137784495949745</v>
-      </c>
-      <c r="K5">
-        <v>0.001032428350299597</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>161</v>
-      </c>
-      <c r="D6">
-        <v>0.002898410893976688</v>
-      </c>
-      <c r="E6">
-        <v>0.1634307177737355</v>
-      </c>
-      <c r="F6">
-        <v>161</v>
-      </c>
-      <c r="G6">
-        <v>0.005984170362353325</v>
-      </c>
-      <c r="H6">
-        <v>0.01477164914831519</v>
-      </c>
-      <c r="I6">
-        <v>0.1164159486070275</v>
-      </c>
-      <c r="J6">
-        <v>0.0182621437124908</v>
-      </c>
-      <c r="K6">
-        <v>0.002305898815393448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>1700</v>
-      </c>
-      <c r="E7">
-        <v>0.01802199811208993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>75</v>
-      </c>
-      <c r="D8">
-        <v>0.0001403349451720715</v>
-      </c>
-      <c r="E8">
-        <v>0.03105690097436309</v>
-      </c>
-      <c r="F8">
-        <v>75</v>
-      </c>
-      <c r="G8">
-        <v>0.002919693943113089</v>
-      </c>
-      <c r="H8">
-        <v>0.005493101663887501</v>
-      </c>
-      <c r="I8">
-        <v>0.008178039453923702</v>
-      </c>
-      <c r="J8">
-        <v>0.01082539837807417</v>
-      </c>
-      <c r="K8">
-        <v>0.001010153442621231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>75</v>
-      </c>
-      <c r="D9">
-        <v>0.001920620910823345</v>
-      </c>
-      <c r="E9">
-        <v>0.0349030657671392</v>
-      </c>
-      <c r="F9">
-        <v>75</v>
-      </c>
-      <c r="G9">
-        <v>0.002867874689400196</v>
-      </c>
-      <c r="H9">
-        <v>0.007513747084885836</v>
-      </c>
-      <c r="I9">
-        <v>0.008498859126120806</v>
-      </c>
-      <c r="J9">
-        <v>0.01235072687268257</v>
-      </c>
-      <c r="K9">
-        <v>0.001014214474707842</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>75</v>
-      </c>
-      <c r="D10">
-        <v>0.001986748073250055</v>
-      </c>
-      <c r="E10">
-        <v>0.03560670325532556</v>
-      </c>
-      <c r="F10">
-        <v>75</v>
-      </c>
-      <c r="G10">
-        <v>0.002889716066420078</v>
-      </c>
-      <c r="H10">
-        <v>0.007650318555533886</v>
-      </c>
-      <c r="I10">
-        <v>0.00861393054947257</v>
-      </c>
-      <c r="J10">
-        <v>0.0124573796056211</v>
-      </c>
-      <c r="K10">
-        <v>0.001009044237434864</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>75</v>
-      </c>
-      <c r="D11">
-        <v>0.0002035470679402351</v>
-      </c>
-      <c r="E11">
-        <v>0.03206363087520003</v>
-      </c>
-      <c r="F11">
-        <v>75</v>
-      </c>
-      <c r="G11">
-        <v>0.002831997349858284</v>
-      </c>
-      <c r="H11">
-        <v>0.005671877413988113</v>
-      </c>
-      <c r="I11">
-        <v>0.008593371137976646</v>
-      </c>
-      <c r="J11">
-        <v>0.01137784495949745</v>
-      </c>
-      <c r="K11">
-        <v>0.001032428350299597</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>161</v>
-      </c>
-      <c r="D12">
-        <v>0.002898410893976688</v>
-      </c>
-      <c r="E12">
-        <v>0.1634307177737355</v>
-      </c>
-      <c r="F12">
-        <v>161</v>
-      </c>
-      <c r="G12">
-        <v>0.005984170362353325</v>
-      </c>
-      <c r="H12">
-        <v>0.01477164914831519</v>
-      </c>
-      <c r="I12">
-        <v>0.1164159486070275</v>
-      </c>
-      <c r="J12">
-        <v>0.0182621437124908</v>
-      </c>
-      <c r="K12">
-        <v>0.002305898815393448</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>1700</v>
-      </c>
-      <c r="E13">
         <v>0.01802199811208993</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b13.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b13.stpprocessed_rand_results_test.xlsx
@@ -15,18 +15,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
+    <t>S*-BS</t>
+  </si>
+  <si>
     <t>S*-HS</t>
   </si>
   <si>
+    <t>S*-MM</t>
+  </si>
+  <si>
+    <t>S*-MM0</t>
+  </si>
+  <si>
+    <t>S*-BS-UN</t>
+  </si>
+  <si>
+    <t>S*-HS-UN</t>
+  </si>
+  <si>
+    <t>S*-MM-UN</t>
+  </si>
+  <si>
+    <t>S*-MM0-UN</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
+    <t>S*-BSND</t>
+  </si>
+  <si>
     <t>S*-HSND</t>
+  </si>
+  <si>
+    <t>S*-MMND</t>
+  </si>
+  <si>
+    <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-BS-UNND</t>
+  </si>
+  <si>
+    <t>S*-HS-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM0-UNND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -420,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +481,50 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -451,9 +535,51 @@
         <v>194</v>
       </c>
       <c r="D2">
+        <v>194</v>
+      </c>
+      <c r="E2">
+        <v>194</v>
+      </c>
+      <c r="F2">
+        <v>194</v>
+      </c>
+      <c r="G2">
+        <v>194</v>
+      </c>
+      <c r="H2">
+        <v>194</v>
+      </c>
+      <c r="I2">
+        <v>194</v>
+      </c>
+      <c r="J2">
+        <v>194</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -464,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,131 +598,593 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="D2">
-        <v>0.00488268630579114</v>
+        <v>0.0003558858297765255</v>
       </c>
       <c r="E2">
-        <v>0.07112788502126932</v>
+        <v>0.04283164069056511</v>
       </c>
       <c r="F2">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="G2">
-        <v>0.006859785411506891</v>
+        <v>0.005548152141273022</v>
       </c>
       <c r="H2">
-        <v>0.01532097067683935</v>
+        <v>0.006947955582290888</v>
       </c>
       <c r="I2">
-        <v>0.02495825104415417</v>
+        <v>0.01160141220316291</v>
       </c>
       <c r="J2">
-        <v>0.01374131022021174</v>
+        <v>0.0114063466899097</v>
       </c>
       <c r="K2">
-        <v>0.004082162398844957</v>
+        <v>0.002931880299001932</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1700</v>
+        <v>160</v>
+      </c>
+      <c r="D3">
+        <v>0.006083028856664896</v>
       </c>
       <c r="E3">
-        <v>0.01802199811208993</v>
+        <v>0.08280238090083003</v>
+      </c>
+      <c r="F3">
+        <v>160</v>
+      </c>
+      <c r="G3">
+        <v>0.008248733356595039</v>
+      </c>
+      <c r="H3">
+        <v>0.01835221238434315</v>
+      </c>
+      <c r="I3">
+        <v>0.02822404494509101</v>
+      </c>
+      <c r="J3">
+        <v>0.01610229443758726</v>
+      </c>
+      <c r="K3">
+        <v>0.004603290930390358</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="D4">
-        <v>0.00488268630579114</v>
+        <v>0.002367679961025715</v>
       </c>
       <c r="E4">
-        <v>0.07112788502126932</v>
+        <v>0.03929949831217527</v>
       </c>
       <c r="F4">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="G4">
-        <v>0.006859785411506891</v>
+        <v>0.004504370968788862</v>
       </c>
       <c r="H4">
-        <v>0.01532097067683935</v>
+        <v>0.008777039125561714</v>
       </c>
       <c r="I4">
-        <v>0.02495825104415417</v>
+        <v>0.008304420858621597</v>
       </c>
       <c r="J4">
-        <v>0.01374131022021174</v>
+        <v>0.01140234153717756</v>
       </c>
       <c r="K4">
-        <v>0.004082162398844957</v>
+        <v>0.002485758159309626</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C5">
+        <v>75</v>
+      </c>
+      <c r="D5">
+        <v>0.000262006651610136</v>
+      </c>
+      <c r="E5">
+        <v>0.04342984315007925</v>
+      </c>
+      <c r="F5">
+        <v>75</v>
+      </c>
+      <c r="G5">
+        <v>0.005836902186274529</v>
+      </c>
+      <c r="H5">
+        <v>0.007607812061905861</v>
+      </c>
+      <c r="I5">
+        <v>0.01077656354755163</v>
+      </c>
+      <c r="J5">
+        <v>0.01148331398144364</v>
+      </c>
+      <c r="K5">
+        <v>0.002927479799836874</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>161</v>
+      </c>
+      <c r="D6">
+        <v>0.0006812615320086479</v>
+      </c>
+      <c r="E6">
+        <v>0.09977286495268345</v>
+      </c>
+      <c r="F6">
+        <v>161</v>
+      </c>
+      <c r="G6">
+        <v>0.00752943241968751</v>
+      </c>
+      <c r="H6">
+        <v>0.01198915299028158</v>
+      </c>
+      <c r="I6">
+        <v>0.060617720708251</v>
+      </c>
+      <c r="J6">
+        <v>0.008307249285280704</v>
+      </c>
+      <c r="K6">
+        <v>0.004821838811039925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>644</v>
+      </c>
+      <c r="D7">
+        <v>0.0157091086730361</v>
+      </c>
+      <c r="E7">
+        <v>0.495093013625592</v>
+      </c>
+      <c r="F7">
+        <v>644</v>
+      </c>
+      <c r="G7">
+        <v>0.02975576650351286</v>
+      </c>
+      <c r="H7">
+        <v>0.06105871638283134</v>
+      </c>
+      <c r="I7">
+        <v>0.3212199211120605</v>
+      </c>
+      <c r="J7">
+        <v>0.03517816960811615</v>
+      </c>
+      <c r="K7">
+        <v>0.02007283922284842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>161</v>
+      </c>
+      <c r="D8">
+        <v>0.006495729088783264</v>
+      </c>
+      <c r="E8">
+        <v>0.1724620386958122</v>
+      </c>
+      <c r="F8">
+        <v>161</v>
+      </c>
+      <c r="G8">
+        <v>0.01117713516578078</v>
+      </c>
+      <c r="H8">
+        <v>0.0235273321159184</v>
+      </c>
+      <c r="I8">
+        <v>0.09885456971824169</v>
+      </c>
+      <c r="J8">
+        <v>0.02159319631755352</v>
+      </c>
+      <c r="K8">
+        <v>0.006949626840651035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>161</v>
+      </c>
+      <c r="D9">
+        <v>0.0008219284936785698</v>
+      </c>
+      <c r="E9">
+        <v>0.09961186721920967</v>
+      </c>
+      <c r="F9">
+        <v>161</v>
+      </c>
+      <c r="G9">
+        <v>0.007139056455343962</v>
+      </c>
+      <c r="H9">
+        <v>0.01212545577436686</v>
+      </c>
+      <c r="I9">
+        <v>0.06176126236096025</v>
+      </c>
+      <c r="J9">
+        <v>0.008083866443485022</v>
+      </c>
+      <c r="K9">
+        <v>0.004409190732985735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>1700</v>
       </c>
-      <c r="E5">
+      <c r="E10">
+        <v>0.01802199811208993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <v>0.0003558858297765255</v>
+      </c>
+      <c r="E11">
+        <v>0.04283164069056511</v>
+      </c>
+      <c r="F11">
+        <v>75</v>
+      </c>
+      <c r="G11">
+        <v>0.005548152141273022</v>
+      </c>
+      <c r="H11">
+        <v>0.006947955582290888</v>
+      </c>
+      <c r="I11">
+        <v>0.01160141220316291</v>
+      </c>
+      <c r="J11">
+        <v>0.0114063466899097</v>
+      </c>
+      <c r="K11">
+        <v>0.002931880299001932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>160</v>
+      </c>
+      <c r="D12">
+        <v>0.006083028856664896</v>
+      </c>
+      <c r="E12">
+        <v>0.08280238090083003</v>
+      </c>
+      <c r="F12">
+        <v>160</v>
+      </c>
+      <c r="G12">
+        <v>0.008248733356595039</v>
+      </c>
+      <c r="H12">
+        <v>0.01835221238434315</v>
+      </c>
+      <c r="I12">
+        <v>0.02822404494509101</v>
+      </c>
+      <c r="J12">
+        <v>0.01610229443758726</v>
+      </c>
+      <c r="K12">
+        <v>0.004603290930390358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>0.002367679961025715</v>
+      </c>
+      <c r="E13">
+        <v>0.03929949831217527</v>
+      </c>
+      <c r="F13">
+        <v>75</v>
+      </c>
+      <c r="G13">
+        <v>0.004504370968788862</v>
+      </c>
+      <c r="H13">
+        <v>0.008777039125561714</v>
+      </c>
+      <c r="I13">
+        <v>0.008304420858621597</v>
+      </c>
+      <c r="J13">
+        <v>0.01140234153717756</v>
+      </c>
+      <c r="K13">
+        <v>0.002485758159309626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>75</v>
+      </c>
+      <c r="D14">
+        <v>0.000262006651610136</v>
+      </c>
+      <c r="E14">
+        <v>0.04342984315007925</v>
+      </c>
+      <c r="F14">
+        <v>75</v>
+      </c>
+      <c r="G14">
+        <v>0.005836902186274529</v>
+      </c>
+      <c r="H14">
+        <v>0.007607812061905861</v>
+      </c>
+      <c r="I14">
+        <v>0.01077656354755163</v>
+      </c>
+      <c r="J14">
+        <v>0.01148331398144364</v>
+      </c>
+      <c r="K14">
+        <v>0.002927479799836874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>161</v>
+      </c>
+      <c r="D15">
+        <v>0.0006812615320086479</v>
+      </c>
+      <c r="E15">
+        <v>0.09977286495268345</v>
+      </c>
+      <c r="F15">
+        <v>161</v>
+      </c>
+      <c r="G15">
+        <v>0.00752943241968751</v>
+      </c>
+      <c r="H15">
+        <v>0.01198915299028158</v>
+      </c>
+      <c r="I15">
+        <v>0.060617720708251</v>
+      </c>
+      <c r="J15">
+        <v>0.008307249285280704</v>
+      </c>
+      <c r="K15">
+        <v>0.004821838811039925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>644</v>
+      </c>
+      <c r="D16">
+        <v>0.0157091086730361</v>
+      </c>
+      <c r="E16">
+        <v>0.495093013625592</v>
+      </c>
+      <c r="F16">
+        <v>644</v>
+      </c>
+      <c r="G16">
+        <v>0.02975576650351286</v>
+      </c>
+      <c r="H16">
+        <v>0.06105871638283134</v>
+      </c>
+      <c r="I16">
+        <v>0.3212199211120605</v>
+      </c>
+      <c r="J16">
+        <v>0.03517816960811615</v>
+      </c>
+      <c r="K16">
+        <v>0.02007283922284842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>161</v>
+      </c>
+      <c r="D17">
+        <v>0.006495729088783264</v>
+      </c>
+      <c r="E17">
+        <v>0.1724620386958122</v>
+      </c>
+      <c r="F17">
+        <v>161</v>
+      </c>
+      <c r="G17">
+        <v>0.01117713516578078</v>
+      </c>
+      <c r="H17">
+        <v>0.0235273321159184</v>
+      </c>
+      <c r="I17">
+        <v>0.09885456971824169</v>
+      </c>
+      <c r="J17">
+        <v>0.02159319631755352</v>
+      </c>
+      <c r="K17">
+        <v>0.006949626840651035</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>161</v>
+      </c>
+      <c r="D18">
+        <v>0.0008219284936785698</v>
+      </c>
+      <c r="E18">
+        <v>0.09961186721920967</v>
+      </c>
+      <c r="F18">
+        <v>161</v>
+      </c>
+      <c r="G18">
+        <v>0.007139056455343962</v>
+      </c>
+      <c r="H18">
+        <v>0.01212545577436686</v>
+      </c>
+      <c r="I18">
+        <v>0.06176126236096025</v>
+      </c>
+      <c r="J18">
+        <v>0.008083866443485022</v>
+      </c>
+      <c r="K18">
+        <v>0.004409190732985735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>1700</v>
+      </c>
+      <c r="E19">
         <v>0.01802199811208993</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
